--- a/data_year/zb/文化/文物业基本情况/文物业收入合计.xlsx
+++ b/data_year/zb/文化/文物业基本情况/文物业收入合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -509,548 +509,482 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>214336</v>
+        <v>365904</v>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>120767</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>204667.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>453079</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105815.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1205788.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>739640.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>693248.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2363063.8</v>
+      </c>
       <c r="I3" t="n">
-        <v>225287</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+        <v>463609</v>
+      </c>
+      <c r="J3" t="n">
+        <v>101136.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>139450</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2257248.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>725507.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>166725.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>663778.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>197775.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1492024.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1002039.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>931523.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2959894</v>
+      </c>
       <c r="I4" t="n">
-        <v>269410</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>535778.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>85894.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>182417.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2762118.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>859605.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>194905</v>
+      </c>
+      <c r="C5" t="n">
+        <v>771991</v>
+      </c>
+      <c r="D5" t="n">
+        <v>304920</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1755739</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1372808</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1088734</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3645841</v>
+      </c>
       <c r="I5" t="n">
-        <v>311916</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>819557</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89630</v>
+      </c>
+      <c r="K5" t="n">
+        <v>208924</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3340921</v>
+      </c>
+      <c r="M5" t="n">
+        <v>989394</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>209913.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>881692.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>343892.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1955511.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1513617.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1225223.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3926215.5</v>
+      </c>
       <c r="I6" t="n">
-        <v>308949</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>757303.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>87895.60000000001</v>
+      </c>
       <c r="K6" t="n">
-        <v>88210</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>243812</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3582322.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>977460.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>224003.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>884799.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>392357.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2169987.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1768964.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1369566.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4246280.5</v>
+      </c>
       <c r="I7" t="n">
-        <v>365904</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>875460</v>
+      </c>
+      <c r="J7" t="n">
+        <v>60184.5</v>
+      </c>
       <c r="K7" t="n">
-        <v>120767</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>255848.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3853923.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>883745.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204667.1</v>
+        <v>215557.1</v>
       </c>
       <c r="C8" t="n">
-        <v>453079</v>
+        <v>1024105.4</v>
       </c>
       <c r="D8" t="n">
-        <v>105815.5</v>
+        <v>437422.9</v>
       </c>
       <c r="E8" t="n">
-        <v>1205788.9</v>
+        <v>2348521.3</v>
       </c>
       <c r="F8" t="n">
-        <v>739640.7</v>
+        <v>1960543</v>
       </c>
       <c r="G8" t="n">
-        <v>693248.9</v>
+        <v>1555957.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2363063.8</v>
+        <v>4714830.2</v>
       </c>
       <c r="I8" t="n">
-        <v>463609</v>
+        <v>995357.3</v>
       </c>
       <c r="J8" t="n">
-        <v>101136.9</v>
+        <v>54382.6</v>
       </c>
       <c r="K8" t="n">
-        <v>139450</v>
+        <v>292463.6</v>
       </c>
       <c r="L8" t="n">
-        <v>2257248.3</v>
+        <v>4277407.3</v>
       </c>
       <c r="M8" t="n">
-        <v>725507.1</v>
+        <v>982772.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166725.3</v>
+        <v>243201.2</v>
       </c>
       <c r="C9" t="n">
-        <v>663778.4</v>
+        <v>1000494.4</v>
       </c>
       <c r="D9" t="n">
-        <v>197775.8</v>
+        <v>683816</v>
       </c>
       <c r="E9" t="n">
-        <v>1492024.2</v>
+        <v>3255558.4</v>
       </c>
       <c r="F9" t="n">
-        <v>1002039.5</v>
+        <v>2262829.3</v>
       </c>
       <c r="G9" t="n">
-        <v>931523.9</v>
+        <v>1965514.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2959894</v>
+        <v>5594199</v>
       </c>
       <c r="I9" t="n">
-        <v>535778.9</v>
+        <v>989812.9</v>
       </c>
       <c r="J9" t="n">
-        <v>85894.7</v>
+        <v>59475.4</v>
       </c>
       <c r="K9" t="n">
-        <v>182417.8</v>
+        <v>288857.9</v>
       </c>
       <c r="L9" t="n">
-        <v>2762118.2</v>
+        <v>4910383</v>
       </c>
       <c r="M9" t="n">
-        <v>859605.3</v>
+        <v>1122653.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>194905</v>
+        <v>278201</v>
       </c>
       <c r="C10" t="n">
-        <v>771991</v>
+        <v>1154523</v>
       </c>
       <c r="D10" t="n">
-        <v>304920</v>
+        <v>622202</v>
       </c>
       <c r="E10" t="n">
-        <v>1755739</v>
+        <v>3043180</v>
       </c>
       <c r="F10" t="n">
-        <v>1372808</v>
+        <v>2449570</v>
       </c>
       <c r="G10" t="n">
-        <v>1088734</v>
+        <v>1888521</v>
       </c>
       <c r="H10" t="n">
-        <v>3645841</v>
+        <v>5621156</v>
       </c>
       <c r="I10" t="n">
-        <v>819557</v>
+        <v>1032279</v>
       </c>
       <c r="J10" t="n">
-        <v>89630</v>
+        <v>58104</v>
       </c>
       <c r="K10" t="n">
-        <v>208924</v>
+        <v>333070</v>
       </c>
       <c r="L10" t="n">
-        <v>3340921</v>
+        <v>4998955</v>
       </c>
       <c r="M10" t="n">
-        <v>989394</v>
+        <v>1004865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>209913.7</v>
+        <v>277341</v>
       </c>
       <c r="C11" t="n">
-        <v>881692.6</v>
+        <v>1379011.2</v>
       </c>
       <c r="D11" t="n">
-        <v>343892.7</v>
+        <v>687615</v>
       </c>
       <c r="E11" t="n">
-        <v>1955511.9</v>
+        <v>3376342</v>
       </c>
       <c r="F11" t="n">
-        <v>1513617.5</v>
+        <v>2752155.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1225223.8</v>
+        <v>2004392.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3926215.5</v>
+        <v>6211925.2</v>
       </c>
       <c r="I11" t="n">
-        <v>757303.4</v>
+        <v>989519</v>
       </c>
       <c r="J11" t="n">
-        <v>87895.60000000001</v>
+        <v>77558</v>
       </c>
       <c r="K11" t="n">
-        <v>243812</v>
+        <v>389494.7</v>
       </c>
       <c r="L11" t="n">
-        <v>3582322.8</v>
+        <v>5524310.3</v>
       </c>
       <c r="M11" t="n">
-        <v>977460.5</v>
+        <v>1178036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>224003.5</v>
+        <v>233634.6</v>
       </c>
       <c r="C12" t="n">
-        <v>884799.9</v>
+        <v>1759770.5</v>
       </c>
       <c r="D12" t="n">
-        <v>392357.2</v>
+        <v>686021.7</v>
       </c>
       <c r="E12" t="n">
-        <v>2169987.3</v>
+        <v>3269705.8</v>
       </c>
       <c r="F12" t="n">
-        <v>1768964.4</v>
+        <v>3169209.1</v>
       </c>
       <c r="G12" t="n">
-        <v>1369566.9</v>
+        <v>1810927.7</v>
       </c>
       <c r="H12" t="n">
-        <v>4246280.5</v>
+        <v>6373779.2</v>
       </c>
       <c r="I12" t="n">
-        <v>875460</v>
-      </c>
-      <c r="J12" t="n">
-        <v>60184.5</v>
-      </c>
+        <v>940897.7</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>255848.8</v>
+        <v>403405.2</v>
       </c>
       <c r="L12" t="n">
-        <v>3853923.3</v>
+        <v>5687757.5</v>
       </c>
       <c r="M12" t="n">
-        <v>883745.7</v>
+        <v>1160007.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>215557.1</v>
+        <v>261473.6</v>
       </c>
       <c r="C13" t="n">
-        <v>1024105.4</v>
+        <v>2596602.7</v>
       </c>
       <c r="D13" t="n">
-        <v>437422.9</v>
+        <v>894057.1</v>
       </c>
       <c r="E13" t="n">
-        <v>2348521.3</v>
+        <v>3996501.4</v>
       </c>
       <c r="F13" t="n">
-        <v>1960543</v>
+        <v>4204461.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1555957.4</v>
+        <v>2270320.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4714830.2</v>
+        <v>8046537.1</v>
       </c>
       <c r="I13" t="n">
-        <v>995357.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>54382.6</v>
-      </c>
+        <v>964873.1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>292463.6</v>
+        <v>488559.9</v>
       </c>
       <c r="L13" t="n">
-        <v>4277407.3</v>
+        <v>7152480</v>
       </c>
       <c r="M13" t="n">
-        <v>982772.7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>243201.2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1000494.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>683816</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3255558.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2262829.3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1965514.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5594199</v>
-      </c>
-      <c r="I14" t="n">
-        <v>989812.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>59475.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>288857.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4910383</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1122653.8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>278201</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1154523</v>
-      </c>
-      <c r="D15" t="n">
-        <v>622202</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3043180</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2449570</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1888521</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5621156</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1032279</v>
-      </c>
-      <c r="J15" t="n">
-        <v>58104</v>
-      </c>
-      <c r="K15" t="n">
-        <v>333070</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4998955</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1004865</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>277341</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1379011.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>687615</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3376342</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2752155.3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2004392.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6211925.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>989519</v>
-      </c>
-      <c r="J16" t="n">
-        <v>77558</v>
-      </c>
-      <c r="K16" t="n">
-        <v>389494.7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5524310.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1178036</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>233634.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1759770.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>686021.7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3269705.8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3169209.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1810927.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6373779.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>940897.7</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>403405.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5687757.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1160007.8</v>
+        <v>1310280.9</v>
       </c>
     </row>
   </sheetData>
